--- a/strategy/工作簿1.xlsx
+++ b/strategy/工作簿1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="210">
   <si>
     <t>LRU</t>
   </si>
@@ -408,6 +408,255 @@
   </si>
   <si>
     <t>APS: 78.4129224496197</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>原生Redis</t>
+  </si>
+  <si>
+    <t>Total time: 13.109999999998204  OPS : 76277.65064837049</t>
+  </si>
+  <si>
+    <t>Total time: 32.001      OPS : 31249.023468016625</t>
+  </si>
+  <si>
+    <t>Total time: 36.658      OPS : 27279.175077745647</t>
+  </si>
+  <si>
+    <t>Total time: 49.006      OPS : 20405.664612496428</t>
+  </si>
+  <si>
+    <t>Total time: 15.572999999996853  OPS : 64213.70320427677</t>
+  </si>
+  <si>
+    <t>Total time: 27.896      OPS : 35847.433323774014</t>
+  </si>
+  <si>
+    <t>Total time: 36.841      OPS : 27143.671453000734</t>
+  </si>
+  <si>
+    <t>Total time: 48.735      OPS : 20519.134092541295</t>
+  </si>
+  <si>
+    <t>Total time: 15.312999999996997  OPS : 65303.990073806315</t>
+  </si>
+  <si>
+    <t>Total time: 34.244      OPS : 29202.196005139587</t>
+  </si>
+  <si>
+    <t>Total time: 36.57       OPS : 27344.818156959256</t>
+  </si>
+  <si>
+    <t>Total time: 48.936      OPS : 20434.853686447605</t>
+  </si>
+  <si>
+    <t>Total time: 12.752999999998389  OPS : 78412.92244962961</t>
+  </si>
+  <si>
+    <t>Total time: 26.33       OPS : 37979.4910748196</t>
+  </si>
+  <si>
+    <t>Total time: 36.295      OPS : 27552.004408320703</t>
+  </si>
+  <si>
+    <t>Total time: 43.476      OPS : 23001.196062195235</t>
+  </si>
+  <si>
+    <t>Total time: 13.137999999998174  OPS : 76115.08601005777</t>
+  </si>
+  <si>
+    <t>Total time: 31.492      OPS : 31754.096278419915</t>
+  </si>
+  <si>
+    <t>Total time: 36.47       OPS : 27419.797093501507</t>
+  </si>
+  <si>
+    <t>Total time: 45.349      OPS : 22051.20289311782</t>
+  </si>
+  <si>
+    <t>Total time: 15.447999999996906  OPS : 64733.29880892027</t>
+  </si>
+  <si>
+    <t>Total time: 25.71700000000838   OPS : 38884.78438385792</t>
+  </si>
+  <si>
+    <t>Total time: 38.3030000000014    OPS : 26107.615591467078</t>
+  </si>
+  <si>
+    <t>Total time: 42.90199999999082   OPS : 23308.936646315182</t>
+  </si>
+  <si>
+    <t>Total time: 12.756999999998385  OPS : 78388.33581564056</t>
+  </si>
+  <si>
+    <t>Total time: 25.319000000007883  OPS : 39496.03064890749</t>
+  </si>
+  <si>
+    <t>Total time: 31.386000000015198  OPS : 31861.33945069508</t>
+  </si>
+  <si>
+    <t>Total time: 58.765999999954325  OPS : 17016.6422761593</t>
+  </si>
+  <si>
+    <t>Total time: 15.301999999996983  OPS : 65350.934518376496</t>
+  </si>
+  <si>
+    <t>Total time: 25.57900000000821   OPS : 39094.56976424719</t>
+  </si>
+  <si>
+    <t>Total time: 31.131000000014875  OPS : 32122.321801404458</t>
+  </si>
+  <si>
+    <t>Total time: 50.9469999999724    OPS : 19628.24111332447</t>
+  </si>
+  <si>
+    <t>Total time: 12.800999999998362  OPS : 78118.8969611849</t>
+  </si>
+  <si>
+    <t>Total time: 30.361000000013945  OPS : 32936.991535178044</t>
+  </si>
+  <si>
+    <t>Total time: 31.33300000001507   OPS : 31915.233140762743</t>
+  </si>
+  <si>
+    <t>Total time: 50.94399999997235   OPS : 19629.396984935276</t>
+  </si>
+  <si>
+    <t>Total time: 15.365999999996955  OPS : 65078.745281803866</t>
+  </si>
+  <si>
+    <t>Total time: 25.42500000000801   OPS : 39331.3667649827</t>
+  </si>
+  <si>
+    <t>Total time: 37.978000000002204  OPS : 26331.033756383746</t>
+  </si>
+  <si>
+    <t>Total time: 60.94399999994931   OPS : 16408.506169611966</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Total time: 10.129999999999825  OPS : 98716.68311944889</t>
+  </si>
+  <si>
+    <t>Total time: 24.708000000007136  OPS : 40472.72138577429</t>
+  </si>
+  <si>
+    <t>Total time: 37.178000000004005  OPS : 26897.627629240204</t>
+  </si>
+  <si>
+    <t>Total time: 43.743999999988844  OPS : 22860.27798098608</t>
+  </si>
+  <si>
+    <t>Total time: 12.130999999998728  OPS : 82433.43500124515</t>
+  </si>
+  <si>
+    <t>Total time: 29.639000000013134  OPS : 33739.3299368925</t>
+  </si>
+  <si>
+    <t>Total time: 37.36600000000365   OPS : 26762.297275595523</t>
+  </si>
+  <si>
+    <t>Total time: 47.29499999998072   OPS : 21143.88413152358</t>
+  </si>
+  <si>
+    <t>Total time: 12.055999999998773  OPS : 82946.25082947094</t>
+  </si>
+  <si>
+    <t>Total time: 24.744000000007183  OPS : 40413.837698016076</t>
+  </si>
+  <si>
+    <t>Total time: 36.90500000000467   OPS : 27096.599376774786</t>
+  </si>
+  <si>
+    <t>Total time: 58.640999999954516  OPS : 17052.915195865957</t>
+  </si>
+  <si>
+    <t>Total time: 9.842999999999984   OPS : 101595.04216194266</t>
+  </si>
+  <si>
+    <t>Total time: 29.655000000013125  OPS : 33721.126285603015</t>
+  </si>
+  <si>
+    <t>Total time: 36.50300000000558   OPS : 27395.008629423533</t>
+  </si>
+  <si>
+    <t>Total time: 59.69699999995209   OPS : 16751.260532368502</t>
+  </si>
+  <si>
+    <t>Total time: 12.042999999998775  OPS : 83035.78842481953</t>
+  </si>
+  <si>
+    <t>Total time: 29.855000000013362  OPS : 33495.22693014746</t>
+  </si>
+  <si>
+    <t>Total time: 45.28999999998535   OPS : 22079.929344233242</t>
+  </si>
+  <si>
+    <t>Total time: 58.71499999995435   OPS : 17031.422975402835</t>
+  </si>
+  <si>
+    <t>Total time: 12.312999999998631  OPS : 81214.9760415911</t>
+  </si>
+  <si>
+    <t>Total time: 19.737000000001125  OPS : 50666.26133657309</t>
+  </si>
+  <si>
+    <t>Total time: 30.242000000013824  OPS : 33066.59612457982</t>
+  </si>
+  <si>
+    <t>Total time: 39.63299999999832   OPS : 25231.49900335686</t>
+  </si>
+  <si>
+    <t>Total time: 9.775000000000023   OPS : 102301.79028132968</t>
+  </si>
+  <si>
+    <t>Total time: 23.967000000006244  OPS : 41724.03721783033</t>
+  </si>
+  <si>
+    <t>Total time: 29.63600000001312   OPS : 33742.74530974346</t>
+  </si>
+  <si>
+    <t>Total time: 39.4289999999988    OPS : 25362.04316619824</t>
+  </si>
+  <si>
+    <t>Total time: 11.918999999998846  OPS : 83899.65601141848</t>
+  </si>
+  <si>
+    <t>Total time: 19.865000000001277  OPS : 50339.79360684298</t>
+  </si>
+  <si>
+    <t>Total time: 36.405000000005806  OPS : 27468.754291988476</t>
+  </si>
+  <si>
+    <t>Total time: 39.90199999999775   OPS : 25061.4004310575</t>
+  </si>
+  <si>
+    <t>Total time: 9.829999999999993   OPS : 101729.39979654127</t>
+  </si>
+  <si>
+    <t>Total time: 19.494000000000828  OPS : 51297.83523135106</t>
+  </si>
+  <si>
+    <t>Total time: 29.658000000013132  OPS : 33717.71528759718</t>
+  </si>
+  <si>
+    <t>Total time: 39.663999999998246  OPS : 25211.77894312334</t>
+  </si>
+  <si>
+    <t>Total time: 12.02099999999879   OPS : 83187.75476250733</t>
+  </si>
+  <si>
+    <t>Total time: 20.388000000001924  OPS : 49048.45987835519</t>
+  </si>
+  <si>
+    <t>Total time: 30.42400000001406   OPS : 32868.78779909078</t>
+  </si>
+  <si>
+    <t>Total time: 39.1779999999994    OPS : 25524.529072439003</t>
   </si>
 </sst>
 </file>
@@ -1556,10 +1805,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B7:M68"/>
+  <dimension ref="A7:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="Q89" sqref="Q89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2049,6 +2298,358 @@
         <v>126</v>
       </c>
     </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="3:21">
+      <c r="C73">
+        <v>25</v>
+      </c>
+      <c r="I73">
+        <v>50</v>
+      </c>
+      <c r="O73">
+        <v>75</v>
+      </c>
+      <c r="U73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="3:21">
+      <c r="C74" t="s">
+        <v>129</v>
+      </c>
+      <c r="I74" t="s">
+        <v>130</v>
+      </c>
+      <c r="O74" t="s">
+        <v>131</v>
+      </c>
+      <c r="U74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="3:21">
+      <c r="C75" t="s">
+        <v>133</v>
+      </c>
+      <c r="I75" t="s">
+        <v>134</v>
+      </c>
+      <c r="O75" t="s">
+        <v>135</v>
+      </c>
+      <c r="U75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="3:21">
+      <c r="C76" t="s">
+        <v>137</v>
+      </c>
+      <c r="I76" t="s">
+        <v>138</v>
+      </c>
+      <c r="O76" t="s">
+        <v>139</v>
+      </c>
+      <c r="U76" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="3:21">
+      <c r="C77" t="s">
+        <v>141</v>
+      </c>
+      <c r="I77" t="s">
+        <v>142</v>
+      </c>
+      <c r="O77" t="s">
+        <v>143</v>
+      </c>
+      <c r="U77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="3:21">
+      <c r="C78" t="s">
+        <v>145</v>
+      </c>
+      <c r="I78" t="s">
+        <v>146</v>
+      </c>
+      <c r="O78" t="s">
+        <v>147</v>
+      </c>
+      <c r="U78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21">
+      <c r="C81">
+        <v>25</v>
+      </c>
+      <c r="I81">
+        <v>50</v>
+      </c>
+      <c r="O81">
+        <v>75</v>
+      </c>
+      <c r="U81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21">
+      <c r="C82" t="s">
+        <v>149</v>
+      </c>
+      <c r="I82" t="s">
+        <v>150</v>
+      </c>
+      <c r="O82" t="s">
+        <v>151</v>
+      </c>
+      <c r="U82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="3:21">
+      <c r="C83" t="s">
+        <v>153</v>
+      </c>
+      <c r="I83" t="s">
+        <v>154</v>
+      </c>
+      <c r="O83" t="s">
+        <v>155</v>
+      </c>
+      <c r="U83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21">
+      <c r="C84" t="s">
+        <v>157</v>
+      </c>
+      <c r="I84" t="s">
+        <v>158</v>
+      </c>
+      <c r="O84" t="s">
+        <v>159</v>
+      </c>
+      <c r="U84" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21">
+      <c r="C85" t="s">
+        <v>161</v>
+      </c>
+      <c r="I85" t="s">
+        <v>162</v>
+      </c>
+      <c r="O85" t="s">
+        <v>163</v>
+      </c>
+      <c r="U85" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21">
+      <c r="C86" t="s">
+        <v>165</v>
+      </c>
+      <c r="I86" t="s">
+        <v>166</v>
+      </c>
+      <c r="O86" t="s">
+        <v>167</v>
+      </c>
+      <c r="U86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21">
+      <c r="C89">
+        <v>25</v>
+      </c>
+      <c r="I89">
+        <v>50</v>
+      </c>
+      <c r="O89">
+        <v>75</v>
+      </c>
+      <c r="U89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21">
+      <c r="C90" t="s">
+        <v>170</v>
+      </c>
+      <c r="I90" t="s">
+        <v>171</v>
+      </c>
+      <c r="O90" t="s">
+        <v>172</v>
+      </c>
+      <c r="U90" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="3:21">
+      <c r="C91" t="s">
+        <v>174</v>
+      </c>
+      <c r="I91" t="s">
+        <v>175</v>
+      </c>
+      <c r="O91" t="s">
+        <v>176</v>
+      </c>
+      <c r="U91" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21">
+      <c r="C92" t="s">
+        <v>178</v>
+      </c>
+      <c r="I92" t="s">
+        <v>179</v>
+      </c>
+      <c r="O92" t="s">
+        <v>180</v>
+      </c>
+      <c r="U92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21">
+      <c r="C93" t="s">
+        <v>182</v>
+      </c>
+      <c r="I93" t="s">
+        <v>183</v>
+      </c>
+      <c r="O93" t="s">
+        <v>184</v>
+      </c>
+      <c r="U93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21">
+      <c r="C94" t="s">
+        <v>186</v>
+      </c>
+      <c r="I94" t="s">
+        <v>187</v>
+      </c>
+      <c r="O94" t="s">
+        <v>188</v>
+      </c>
+      <c r="U94" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21">
+      <c r="C97">
+        <v>25</v>
+      </c>
+      <c r="I97">
+        <v>50</v>
+      </c>
+      <c r="O97">
+        <v>75</v>
+      </c>
+      <c r="U97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21">
+      <c r="C98" t="s">
+        <v>190</v>
+      </c>
+      <c r="I98" t="s">
+        <v>191</v>
+      </c>
+      <c r="O98" t="s">
+        <v>192</v>
+      </c>
+      <c r="U98" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21">
+      <c r="C99" t="s">
+        <v>194</v>
+      </c>
+      <c r="I99" t="s">
+        <v>195</v>
+      </c>
+      <c r="O99" t="s">
+        <v>196</v>
+      </c>
+      <c r="U99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21">
+      <c r="C100" t="s">
+        <v>198</v>
+      </c>
+      <c r="I100" t="s">
+        <v>199</v>
+      </c>
+      <c r="O100" t="s">
+        <v>200</v>
+      </c>
+      <c r="U100" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21">
+      <c r="C101" t="s">
+        <v>202</v>
+      </c>
+      <c r="I101" t="s">
+        <v>203</v>
+      </c>
+      <c r="O101" t="s">
+        <v>204</v>
+      </c>
+      <c r="U101" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21">
+      <c r="C102" t="s">
+        <v>206</v>
+      </c>
+      <c r="I102" t="s">
+        <v>207</v>
+      </c>
+      <c r="O102" t="s">
+        <v>208</v>
+      </c>
+      <c r="U102" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
